--- a/DateBase/orders/Dang Nguyen_2025-4-14.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-14.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -691,10 +691,256 @@
       <c r="A31" t="str">
         <v>2</v>
       </c>
+      <c r="C31" t="str">
+        <v>731_芍药冰点_undefined_undefined_10stems</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>71_霜雪mini_Snowy_Gerbera L._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>333_狼尾草_wolf tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>387_洋甘菊_Chamomile_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F51" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>406_千鸟飞燕 白_larkspur white_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>407_千鸟飞燕 紫_larkspur purple_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>500_千鸟飞燕 粉_larkspur pink_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L60"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -752,7 +998,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015101051015108911151510105151510533128863101050</v>
+        <v>0151010510151089111515101051515105331288631010523881255510101010105551555202020555105555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-4-14.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-4-14.xlsx
@@ -1000,6 +1000,9 @@
       <c r="G2" t="str">
         <v>0151010510151089111515101051515105331288631010523881255510101010105551555202020555105555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
